--- a/task.xlsx
+++ b/task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CYBERSOFT\HomeWork\BOOTSTRAP\Group8_Capstone_Bootstrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CYBERSOFT\HomeWork\BOOTSTRAP\Capstone_Bootstrap_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB5D9D9-0ECD-4FAB-A6D0-7732289CF5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3425FEA6-627C-4B83-B46E-3362664FBBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,10 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>Add dark theme for Project</t>
-  </si>
-  <si>
-    <t>Fix fontsize, color, hover for Project</t>
+    <t>Fix fontsize, color, hover for the Project</t>
+  </si>
+  <si>
+    <t>Add dark theme for the Project</t>
   </si>
 </sst>
 </file>
@@ -672,13 +672,58 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -687,6 +732,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,7 +747,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,79 +774,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -1082,506 +1082,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.6">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:23" ht="16.8">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="57" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="6" spans="1:23" ht="16.8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="M6" s="46" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="M6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="M7" s="35" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="M7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="31">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43">
         <v>44977</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="47"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="31">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43">
         <v>44978</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="31">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43">
         <v>44982</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="30"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="47"/>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="31">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43">
         <v>44984</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="49" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="30"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:23" ht="28.2" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="31">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43">
         <v>44988</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="49" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="47"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43">
+        <v>44992</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="30"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="31">
-        <v>44992</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="30"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="45"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
     </row>
     <row r="16" spans="1:23" ht="16.8">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="26">
+      <c r="A18" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="31">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43">
         <v>44982</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="26">
+      <c r="A19" s="41">
         <v>1.2</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="31">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43">
         <v>44983</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="53.4" customHeight="1">
-      <c r="A20" s="26">
+      <c r="A20" s="41">
         <v>1.3</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="31">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43">
         <v>44985</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="32" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="93">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:W9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="A2:B2"/>
@@ -1598,103 +1610,6 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:W7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1705,7 +1620,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -1846,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12">
         <v>44988</v>
@@ -1876,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12">
         <v>44988</v>
@@ -1906,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G7" s="12">
         <v>44988</v>
@@ -1936,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G8" s="12">
         <v>44988</v>
@@ -1966,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G9" s="12">
         <v>44988</v>
